--- a/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,14</t>
+          <t>1,26; 10,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -3,21</t>
+          <t>-9,14; -3,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 16,56</t>
+          <t>5,7; 16,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -3,02</t>
+          <t>-9,42; -3,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 12,39</t>
+          <t>5,12; 12,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -3,77</t>
+          <t>-8,15; -3,74</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 298,45</t>
+          <t>11,44; 268,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,7; 335,58</t>
+          <t>60,3; 363,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,66; -58,91</t>
+          <t>-95,29; -63,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,07; 257,87</t>
+          <t>60,89; 259,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-96,93; -80,04</t>
+          <t>-96,68; -82,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,46</t>
+          <t>-4,48; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -0,88</t>
+          <t>-7,09; -1,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,52</t>
+          <t>-5,4; 1,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,59</t>
+          <t>-6,83; 1,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -2,52</t>
+          <t>-10,07; -2,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -2,04</t>
+          <t>-8,83; -1,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,07</t>
+          <t>-4,43; 0,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -2,74</t>
+          <t>-7,54; -2,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; -1,16</t>
+          <t>-6,3; -1,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 41,84</t>
+          <t>-45,09; 40,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,47; -10,05</t>
+          <t>-69,66; -13,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 26,16</t>
+          <t>-55,91; 28,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 13,22</t>
+          <t>-42,37; 10,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,41; -20,72</t>
+          <t>-63,31; -22,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,51; -16,26</t>
+          <t>-55,49; -15,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 11,66</t>
+          <t>-36,6; 10,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,67; -28,47</t>
+          <t>-61,1; -27,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,04; -11,95</t>
+          <t>-49,88; -10,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,36</t>
+          <t>1,88; 7,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,07</t>
+          <t>1,73; 6,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,45</t>
+          <t>3,56; 9,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 13,31</t>
+          <t>5,96; 13,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,95</t>
+          <t>0,6; 5,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,36</t>
+          <t>7,43; 13,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,97</t>
+          <t>5,12; 9,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,59</t>
+          <t>1,74; 5,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,6</t>
+          <t>6,54; 10,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,8; —</t>
+          <t>27,46; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,79; —</t>
+          <t>14,89; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,56; —</t>
+          <t>107,36; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>154,33; 1536,05</t>
+          <t>166,77; 1568,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 664,71</t>
+          <t>6,48; 793,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>205,33; 2016,52</t>
+          <t>224,17; 1700,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>224,24; 1450,71</t>
+          <t>197,82; 1283,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,98; 847,04</t>
+          <t>63,96; 779,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>272,45; 1550,53</t>
+          <t>281,44; 1577,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 12,1</t>
+          <t>6,39; 11,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,86</t>
+          <t>2,6; 8,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,59</t>
+          <t>1,27; 7,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,27</t>
+          <t>15,73; 23,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 17,99</t>
+          <t>8,66; 17,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,25</t>
+          <t>4,0; 11,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,64</t>
+          <t>11,97; 16,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,62</t>
+          <t>7,11; 12,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,04</t>
+          <t>3,78; 8,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>222,12; 3246,88</t>
+          <t>205,67; 3456,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,41; 1943,0</t>
+          <t>48,41; 1724,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,28; 1503,77</t>
+          <t>20,66; 1565,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>255,8; 934,78</t>
+          <t>254,65; 918,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>157,1; 714,87</t>
+          <t>155,01; 683,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>65,58; 419,88</t>
+          <t>63,22; 399,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>315,08; 921,01</t>
+          <t>323,77; 1001,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>201,87; 700,85</t>
+          <t>192,29; 679,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>95,46; 458,97</t>
+          <t>101,83; 456,02</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -1,67</t>
+          <t>-11,69; -1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 9,48</t>
+          <t>-3,13; 9,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 10,87</t>
+          <t>-1,75; 11,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 2,26</t>
+          <t>-11,1; 3,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 14,21</t>
+          <t>-1,74; 13,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,25</t>
+          <t>-9,07; 3,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -0,86</t>
+          <t>-9,98; -0,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,8</t>
+          <t>-0,66; 9,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,58</t>
+          <t>-3,24; 5,8</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-80,89; -18,74</t>
+          <t>-79,17; -14,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 113,82</t>
+          <t>-23,34; 112,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 127,04</t>
+          <t>-12,35; 142,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 17,01</t>
+          <t>-54,0; 28,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 110,24</t>
+          <t>-9,35; 100,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 31,34</t>
+          <t>-40,34; 27,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-57,9; -4,29</t>
+          <t>-58,37; -4,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 81,82</t>
+          <t>-3,4; 81,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 46,93</t>
+          <t>-19,3; 47,74</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,96</t>
+          <t>4,95; 11,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,58</t>
+          <t>3,23; 9,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,26</t>
+          <t>4,9; 10,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,59</t>
+          <t>3,44; 11,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,69; 15,26</t>
+          <t>5,56; 15,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,83</t>
+          <t>6,04; 13,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,62</t>
+          <t>5,05; 10,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,63; 11,35</t>
+          <t>5,44; 11,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,08</t>
+          <t>6,4; 10,99</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>54,05; 645,91</t>
+          <t>56,0; 657,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>114,98; 781,77</t>
+          <t>104,76; 825,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>105,45; 772,11</t>
+          <t>112,51; 805,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>174,95; 1021,93</t>
+          <t>169,2; 1028,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>197,97; 1097,32</t>
+          <t>186,47; 1121,03</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>204,24; 1090,11</t>
+          <t>208,87; 1001,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,81</t>
+          <t>-1,27; 3,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,49</t>
+          <t>0,89; 6,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,4</t>
+          <t>7,47; 15,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,72</t>
+          <t>-0,14; 5,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,51</t>
+          <t>2,91; 9,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,16</t>
+          <t>4,1; 14,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,98</t>
+          <t>0,25; 3,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,89</t>
+          <t>2,55; 6,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,25</t>
+          <t>6,67; 13,37</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 120,88</t>
+          <t>-24,18; 111,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>11,39; 194,61</t>
+          <t>11,8; 197,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>125,79; 472,25</t>
+          <t>123,5; 474,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,96; 142,34</t>
+          <t>-2,97; 131,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,92; 209,73</t>
+          <t>38,5; 228,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>66,44; 328,64</t>
+          <t>78,86; 336,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,71; 102,16</t>
+          <t>3,42; 97,83</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>41,39; 174,47</t>
+          <t>43,26; 163,04</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>122,38; 332,63</t>
+          <t>122,83; 327,61</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,6</t>
+          <t>0,52; 6,42</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,45</t>
+          <t>-2,65; 2,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,87</t>
+          <t>5,63; 12,84</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,47</t>
+          <t>-3,3; 3,2</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,09</t>
+          <t>-6,29; 0,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,13</t>
+          <t>5,87; 13,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,77</t>
+          <t>-0,85; 3,79</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,35</t>
+          <t>-3,87; 0,42</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,02</t>
+          <t>6,65; 11,91</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,7; 115,93</t>
+          <t>5,76; 117,22</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 44,01</t>
+          <t>-32,16; 42,38</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>70,9; 222,92</t>
+          <t>64,57; 225,67</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 32,35</t>
+          <t>-24,13; 30,72</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-44,6; 0,12</t>
+          <t>-45,53; 1,71</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>42,34; 120,78</t>
+          <t>38,46; 123,66</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 41,82</t>
+          <t>-7,86; 43,6</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 3,21</t>
+          <t>-34,91; 5,04</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>58,38; 137,38</t>
+          <t>60,05; 137,19</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>1,72; 4,08</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>0,94; 3,39</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,24</t>
+          <t>4,29; 7,07</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,6</t>
+          <t>3,3; 6,54</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,79</t>
+          <t>1,91; 4,86</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,21</t>
+          <t>3,96; 7,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,92</t>
+          <t>2,94; 4,96</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,77</t>
+          <t>1,88; 3,81</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,73</t>
+          <t>4,57; 6,8</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>30,93; 94,82</t>
+          <t>29,86; 90,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>21,24; 80,27</t>
+          <t>15,67; 76,26</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>77,48; 161,57</t>
+          <t>75,65; 155,95</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35,59; 83,3</t>
+          <t>35,77; 84,89</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,96; 60,66</t>
+          <t>21,0; 63,48</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>43,42; 92,6</t>
+          <t>43,56; 90,77</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>40,59; 75,44</t>
+          <t>40,52; 77,82</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>24,64; 58,31</t>
+          <t>24,99; 60,13</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>64,9; 105,33</t>
+          <t>62,67; 106,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 10,64</t>
+          <t>1,31; 11,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -3,39</t>
+          <t>-8,87; -3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 16,7</t>
+          <t>5,72; 16,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -3,07</t>
+          <t>-9,71; -3,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,31</t>
+          <t>4,95; 12,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,15; -3,74</t>
+          <t>-7,89; -3,82</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 268,2</t>
+          <t>12,01; 308,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,3; 363,86</t>
+          <t>58,7; 381,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,29; -63,98</t>
+          <t>-95,18; -60,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,89; 259,9</t>
+          <t>61,52; 257,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-96,68; -82,26</t>
+          <t>-96,95; -80,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,56</t>
+          <t>-4,57; 2,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -1,13</t>
+          <t>-6,84; -0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 1,62</t>
+          <t>-5,57; 1,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 1,21</t>
+          <t>-6,88; 1,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -2,7</t>
+          <t>-10,29; -2,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; -1,78</t>
+          <t>-9,25; -1,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,92</t>
+          <t>-4,62; 0,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -2,76</t>
+          <t>-7,57; -2,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,27</t>
+          <t>-6,36; -1,14</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 40,56</t>
+          <t>-46,11; 40,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,66; -13,47</t>
+          <t>-70,76; -11,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 28,39</t>
+          <t>-57,71; 29,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 10,53</t>
+          <t>-42,82; 14,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,31; -22,99</t>
+          <t>-62,71; -20,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,49; -15,26</t>
+          <t>-56,53; -12,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 10,04</t>
+          <t>-37,15; 10,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,1; -27,21</t>
+          <t>-61,05; -26,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,88; -10,24</t>
+          <t>-51,08; -11,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,66</t>
+          <t>2,35; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,87</t>
+          <t>1,73; 6,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,03</t>
+          <t>3,91; 9,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 13,51</t>
+          <t>6,01; 13,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,83</t>
+          <t>0,46; 5,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 13,37</t>
+          <t>7,36; 13,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,71</t>
+          <t>4,9; 9,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,39</t>
+          <t>1,87; 5,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,68</t>
+          <t>6,54; 10,58</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,46; —</t>
+          <t>40,7; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,89; —</t>
+          <t>12,26; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>107,36; —</t>
+          <t>100,1; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>166,77; 1568,93</t>
+          <t>180,05; 1547,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,48; 793,85</t>
+          <t>2,16; 705,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>224,17; 1700,69</t>
+          <t>205,66; 1618,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>197,82; 1283,78</t>
+          <t>206,66; 1374,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,96; 779,31</t>
+          <t>68,7; 722,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>281,44; 1577,34</t>
+          <t>279,71; 1609,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,67</t>
+          <t>6,38; 11,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,68</t>
+          <t>2,95; 8,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,51</t>
+          <t>1,49; 7,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,73; 23,61</t>
+          <t>15,71; 23,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 17,75</t>
+          <t>9,0; 18,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,23</t>
+          <t>3,71; 11,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,97; 16,68</t>
+          <t>11,64; 16,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 12,45</t>
+          <t>7,03; 12,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,67</t>
+          <t>3,89; 8,76</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>205,67; 3456,46</t>
+          <t>194,59; 2716,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,41; 1724,38</t>
+          <t>96,83; 2345,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,66; 1565,97</t>
+          <t>32,44; 1976,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>254,65; 918,5</t>
+          <t>254,32; 1024,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>155,01; 683,72</t>
+          <t>151,64; 696,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>63,22; 399,56</t>
+          <t>62,91; 451,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>323,77; 1001,5</t>
+          <t>294,56; 914,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>192,29; 679,46</t>
+          <t>189,66; 712,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>101,83; 456,02</t>
+          <t>100,1; 472,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -1,46</t>
+          <t>-11,87; -1,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 9,87</t>
+          <t>-2,9; 9,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 11,02</t>
+          <t>-1,39; 10,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 3,37</t>
+          <t>-11,52; 2,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 13,97</t>
+          <t>-2,0; 14,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,69</t>
+          <t>-8,82; 3,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -0,8</t>
+          <t>-9,77; -1,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,81</t>
+          <t>-0,42; 9,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 5,8</t>
+          <t>-3,17; 6,14</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-79,17; -14,3</t>
+          <t>-80,65; -6,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 112,64</t>
+          <t>-20,92; 122,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 142,95</t>
+          <t>-9,86; 122,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 28,58</t>
+          <t>-55,41; 19,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 100,22</t>
+          <t>-11,15; 97,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 27,76</t>
+          <t>-39,85; 28,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-58,37; -4,97</t>
+          <t>-58,74; -7,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 81,74</t>
+          <t>-3,33; 80,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 47,74</t>
+          <t>-18,84; 52,39</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,95; 11,96</t>
+          <t>5,17; 12,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,55</t>
+          <t>3,45; 9,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,14</t>
+          <t>4,89; 10,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,44; 11,83</t>
+          <t>3,3; 11,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,56; 15,45</t>
+          <t>5,59; 15,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,04; 13,69</t>
+          <t>6,48; 13,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,64</t>
+          <t>5,16; 10,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,67</t>
+          <t>5,26; 11,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,99</t>
+          <t>6,39; 10,8</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>56,0; 657,75</t>
+          <t>50,08; 615,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>104,76; 825,65</t>
+          <t>99,38; 792,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>112,51; 805,89</t>
+          <t>118,45; 768,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>169,2; 1028,84</t>
+          <t>165,5; 962,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>186,47; 1121,03</t>
+          <t>174,6; 1077,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>208,87; 1001,45</t>
+          <t>210,9; 1042,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,91</t>
+          <t>-1,22; 4,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,51</t>
+          <t>0,98; 6,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,47; 15,11</t>
+          <t>7,5; 14,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,61</t>
+          <t>-0,01; 5,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,23</t>
+          <t>2,9; 8,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,1; 14,07</t>
+          <t>3,35; 14,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,91</t>
+          <t>0,11; 3,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,77</t>
+          <t>2,56; 6,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,67; 13,37</t>
+          <t>6,72; 13,45</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 111,96</t>
+          <t>-23,06; 133,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>11,8; 197,0</t>
+          <t>11,11; 203,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>123,5; 474,74</t>
+          <t>124,31; 497,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 131,4</t>
+          <t>-1,0; 141,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>38,5; 228,49</t>
+          <t>45,68; 228,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>78,86; 336,89</t>
+          <t>73,75; 339,84</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,42; 97,83</t>
+          <t>1,19; 97,11</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>43,26; 163,04</t>
+          <t>43,94; 167,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>122,83; 327,61</t>
+          <t>127,0; 336,53</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,42</t>
+          <t>0,73; 6,74</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,48</t>
+          <t>-2,96; 2,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,63; 12,84</t>
+          <t>5,62; 12,83</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,2</t>
+          <t>-3,84; 3,25</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 0,19</t>
+          <t>-6,91; -0,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,31</t>
+          <t>5,7; 13,19</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,79</t>
+          <t>-0,42; 3,9</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,42</t>
+          <t>-3,7; 0,51</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,65; 11,91</t>
+          <t>6,93; 12,04</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>5,76; 117,22</t>
+          <t>5,55; 111,94</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 42,38</t>
+          <t>-34,65; 44,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>64,57; 225,67</t>
+          <t>69,56; 231,65</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 30,72</t>
+          <t>-26,35; 30,45</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 1,71</t>
+          <t>-46,82; 0,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>38,46; 123,66</t>
+          <t>39,15; 122,88</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 43,6</t>
+          <t>-3,65; 43,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 5,04</t>
+          <t>-33,71; 5,8</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>60,05; 137,19</t>
+          <t>62,99; 133,52</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,08</t>
+          <t>1,76; 4,17</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,39</t>
+          <t>1,09; 3,41</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,07</t>
+          <t>4,21; 6,93</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,54</t>
+          <t>3,26; 6,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,86</t>
+          <t>1,72; 4,7</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,2</t>
+          <t>3,97; 7,08</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,96</t>
+          <t>2,99; 4,97</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,81</t>
+          <t>1,87; 3,75</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,8</t>
+          <t>4,63; 6,78</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>29,86; 90,78</t>
+          <t>31,96; 92,58</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>15,67; 76,26</t>
+          <t>19,85; 75,98</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>75,65; 155,95</t>
+          <t>74,96; 153,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35,77; 84,89</t>
+          <t>35,33; 80,89</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>21,0; 63,48</t>
+          <t>19,29; 60,44</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>43,56; 90,77</t>
+          <t>44,17; 90,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>40,52; 77,82</t>
+          <t>41,25; 78,08</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>24,99; 60,13</t>
+          <t>26,05; 59,28</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>62,67; 106,93</t>
+          <t>64,98; 106,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,34</t>
+          <t>1,82; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -3,26</t>
+          <t>-8,77; -3,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 16,89</t>
+          <t>5,05; 16,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -3,08</t>
+          <t>-9,59; -3,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 12,15</t>
+          <t>5,26; 12,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -3,82</t>
+          <t>-8,13; -3,77</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 308,42</t>
+          <t>16,7; 298,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,7; 381,42</t>
+          <t>44,7; 335,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,18; -60,26</t>
+          <t>-94,66; -58,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,52; 257,62</t>
+          <t>65,07; 257,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-96,95; -80,82</t>
+          <t>-96,93; -80,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,38</t>
+          <t>-4,18; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -0,79</t>
+          <t>-6,79; -0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 1,69</t>
+          <t>-5,54; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,63</t>
+          <t>-7,19; 1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,29; -2,61</t>
+          <t>-10,26; -2,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -1,45</t>
+          <t>-9,51; -2,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,99</t>
+          <t>-4,64; 1,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -2,74</t>
+          <t>-7,59; -2,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -1,14</t>
+          <t>-6,4; -1,16</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 40,06</t>
+          <t>-42,55; 41,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,76; -11,32</t>
+          <t>-69,47; -10,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 29,33</t>
+          <t>-57,14; 26,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 14,47</t>
+          <t>-44,08; 13,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,71; -20,07</t>
+          <t>-63,41; -20,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -12,0</t>
+          <t>-57,51; -16,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 10,17</t>
+          <t>-36,83; 11,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,05; -26,14</t>
+          <t>-60,67; -28,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,08; -11,99</t>
+          <t>-51,04; -11,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,28</t>
+          <t>2,29; 8,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,95</t>
+          <t>1,75; 7,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,27</t>
+          <t>3,56; 9,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 13,7</t>
+          <t>6,18; 13,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,86</t>
+          <t>0,69; 5,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,32</t>
+          <t>7,21; 13,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,53</t>
+          <t>4,97; 9,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,46</t>
+          <t>1,73; 5,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,58</t>
+          <t>6,48; 10,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,7; —</t>
+          <t>48,8; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,26; —</t>
+          <t>13,79; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100,1; —</t>
+          <t>96,56; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>180,05; 1547,14</t>
+          <t>154,33; 1536,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 705,72</t>
+          <t>-15,29; 664,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>205,66; 1618,76</t>
+          <t>205,33; 2016,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>206,66; 1374,43</t>
+          <t>224,24; 1450,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,7; 722,06</t>
+          <t>68,98; 847,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>279,71; 1609,34</t>
+          <t>272,45; 1550,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,77</t>
+          <t>6,71; 12,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,88</t>
+          <t>3,29; 8,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,78</t>
+          <t>1,39; 7,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,71; 23,99</t>
+          <t>15,15; 23,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,0; 18,31</t>
+          <t>9,3; 17,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 11,28</t>
+          <t>4,03; 11,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,64</t>
+          <t>11,67; 16,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,6</t>
+          <t>7,03; 12,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,76</t>
+          <t>3,93; 9,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>194,59; 2716,15</t>
+          <t>222,12; 3246,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>96,83; 2345,72</t>
+          <t>86,41; 1943,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,44; 1976,41</t>
+          <t>20,28; 1503,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>254,32; 1024,54</t>
+          <t>255,8; 934,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>151,64; 696,21</t>
+          <t>157,1; 714,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,91; 451,82</t>
+          <t>65,58; 419,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>294,56; 914,94</t>
+          <t>315,08; 921,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>189,66; 712,52</t>
+          <t>201,87; 700,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>100,1; 472,56</t>
+          <t>95,46; 458,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -1,24</t>
+          <t>-11,65; -1,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 9,71</t>
+          <t>-3,29; 9,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 10,1</t>
+          <t>-1,65; 10,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 2,37</t>
+          <t>-11,44; 2,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 14,0</t>
+          <t>-1,83; 14,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 3,64</t>
+          <t>-8,84; 4,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,34</t>
+          <t>-9,75; -0,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 9,75</t>
+          <t>-0,44; 9,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,14</t>
+          <t>-3,43; 5,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-80,65; -6,0</t>
+          <t>-80,89; -18,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 122,13</t>
+          <t>-23,24; 113,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 122,16</t>
+          <t>-13,31; 127,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 19,39</t>
+          <t>-53,48; 17,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 97,67</t>
+          <t>-9,21; 110,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 28,46</t>
+          <t>-40,24; 31,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-58,74; -7,98</t>
+          <t>-57,9; -4,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 80,65</t>
+          <t>-3,91; 81,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 52,39</t>
+          <t>-20,48; 46,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,18</t>
+          <t>5,14; 11,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,28</t>
+          <t>3,35; 9,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,04</t>
+          <t>4,79; 10,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,87</t>
+          <t>3,03; 11,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,59; 15,73</t>
+          <t>5,69; 15,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,74</t>
+          <t>6,37; 13,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,52</t>
+          <t>5,07; 10,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,31</t>
+          <t>5,63; 11,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,8</t>
+          <t>6,4; 11,08</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50,08; 615,93</t>
+          <t>54,05; 645,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>99,38; 792,12</t>
+          <t>114,98; 781,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>118,45; 768,81</t>
+          <t>105,45; 772,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>165,5; 962,53</t>
+          <t>174,95; 1021,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>174,6; 1077,21</t>
+          <t>197,97; 1097,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>210,9; 1042,64</t>
+          <t>204,24; 1090,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,1</t>
+          <t>-1,6; 3,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,52</t>
+          <t>0,77; 6,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,5; 14,71</t>
+          <t>7,55; 15,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,83</t>
+          <t>0,09; 5,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,98</t>
+          <t>2,37; 8,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,13</t>
+          <t>4,11; 14,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,94</t>
+          <t>0,09; 3,98</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,77</t>
+          <t>2,59; 6,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,45</t>
+          <t>6,65; 13,25</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 133,01</t>
+          <t>-28,58; 120,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>11,11; 203,87</t>
+          <t>11,39; 194,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>124,31; 497,76</t>
+          <t>125,79; 472,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 141,95</t>
+          <t>0,96; 142,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>45,68; 228,55</t>
+          <t>36,92; 209,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>73,75; 339,84</t>
+          <t>66,44; 328,64</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,19; 97,11</t>
+          <t>1,71; 102,16</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>43,94; 167,72</t>
+          <t>41,39; 174,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>127,0; 336,53</t>
+          <t>122,38; 332,63</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,74</t>
+          <t>1,09; 6,6</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,48</t>
+          <t>-2,51; 2,45</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,83</t>
+          <t>5,42; 12,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,25</t>
+          <t>-3,77; 3,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -0,1</t>
+          <t>-6,28; 0,09</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,19</t>
+          <t>6,03; 13,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,9</t>
+          <t>-0,78; 3,77</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,51</t>
+          <t>-3,92; 0,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,93; 12,04</t>
+          <t>6,52; 12,02</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>5,55; 111,94</t>
+          <t>13,7; 115,93</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 44,11</t>
+          <t>-31,13; 44,01</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>69,56; 231,65</t>
+          <t>70,9; 222,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 30,45</t>
+          <t>-25,74; 32,35</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 0,57</t>
+          <t>-44,6; 0,12</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>39,15; 122,88</t>
+          <t>42,34; 120,78</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 43,28</t>
+          <t>-6,91; 41,82</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 5,8</t>
+          <t>-35,02; 3,21</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>62,99; 133,52</t>
+          <t>58,38; 137,38</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,17</t>
+          <t>1,77; 4,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,41</t>
+          <t>1,15; 3,5</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,93</t>
+          <t>4,32; 7,24</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,47</t>
+          <t>3,32; 6,6</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,7</t>
+          <t>1,77; 4,79</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,08</t>
+          <t>4,03; 7,21</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,97</t>
+          <t>2,96; 4,92</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,75</t>
+          <t>1,85; 3,77</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,78</t>
+          <t>4,63; 6,73</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>31,96; 92,58</t>
+          <t>30,93; 94,82</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>19,85; 75,98</t>
+          <t>21,24; 80,27</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>74,96; 153,0</t>
+          <t>77,48; 161,57</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35,33; 80,89</t>
+          <t>35,59; 83,3</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>19,29; 60,44</t>
+          <t>18,96; 60,66</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>44,17; 90,87</t>
+          <t>43,42; 92,6</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>41,25; 78,08</t>
+          <t>40,59; 75,44</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>26,05; 59,28</t>
+          <t>24,64; 58,31</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>64,98; 106,38</t>
+          <t>64,9; 105,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-5,75</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 10,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,26; 25,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -3,02</t>
+          <t>-9,61; -3,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 16,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -3,77</t>
+          <t>-8,17; -3,79</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>290,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-85,6%</t>
+          <t>-86,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>200,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-91,94%</t>
+          <t>-92,61%</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,62; 268,14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 298,45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>16,7; 298,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,59; 541,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,66; -58,91</t>
+          <t>-94,88; -60,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>103,5; 347,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-96,93; -80,04</t>
+          <t>-97,28; -81,81</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-3,84</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,52</t>
+          <t>-5,65; 1,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -2,04</t>
+          <t>-9,6; -2,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; -1,16</t>
+          <t>-6,58; -1,28</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,73%</t>
+          <t>-28,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,79%</t>
+          <t>-38,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,53%</t>
+          <t>-34,91%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 26,16</t>
+          <t>-58,86; 25,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,51; -16,26</t>
+          <t>-57,55; -17,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,04; -11,95</t>
+          <t>-51,92; -12,61</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>8,33</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,45</t>
+          <t>3,48; 9,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,36</t>
+          <t>7,15; 13,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,6</t>
+          <t>6,3; 10,35</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>760,32%</t>
+          <t>747,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>607,4%</t>
+          <t>598,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>664,77%</t>
+          <t>649,85%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,56; —</t>
+          <t>93,25; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>205,33; 2016,52</t>
+          <t>198,27; 1980,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>272,45; 1550,53</t>
+          <t>266,83; 1519,97</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,45</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,3</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>5,28</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 12,1</t>
+          <t>5,39; 12,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,59</t>
+          <t>1,4; 7,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,27</t>
+          <t>12,92; 21,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,25</t>
+          <t>0,98; 9,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,64</t>
+          <t>10,19; 16,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,04</t>
+          <t>2,7; 8,1</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>728,6%</t>
+          <t>691,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>333,91%</t>
+          <t>330,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>487,59%</t>
+          <t>429,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>189,58%</t>
+          <t>140,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>540,54%</t>
+          <t>491,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>237,88%</t>
+          <t>199,73%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>222,12; 3246,88</t>
+          <t>166,84; 3134,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,28; 1503,77</t>
+          <t>19,54; 1537,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>255,8; 934,78</t>
+          <t>216,2; 857,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>65,58; 419,88</t>
+          <t>19,12; 329,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>315,08; 921,01</t>
+          <t>267,57; 841,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>95,46; 458,97</t>
+          <t>70,96; 419,8</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1506,37 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-4,42</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>4,67</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-5,4</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 10,87</t>
+          <t>-1,63; 10,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,25</t>
+          <t>-8,87; 4,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,58</t>
+          <t>-3,51; 5,48</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>-12,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,44%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 127,04</t>
+          <t>-13,1; 129,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 31,34</t>
+          <t>-40,59; 30,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 46,93</t>
+          <t>-20,41; 44,97</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>8,46</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,26</t>
+          <t>4,72; 10,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,83</t>
+          <t>6,33; 13,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,08</t>
+          <t>6,27; 10,9</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2010,6%</t>
+          <t>1962,63%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>305,16%</t>
+          <t>303,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>469,32%</t>
+          <t>460,22%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>105,45; 772,11</t>
+          <t>105,25; 772,01</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>204,24; 1090,11</t>
+          <t>199,44; 1061,51</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>9,91</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,4</t>
+          <t>7,94; 16,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,16</t>
+          <t>0,63; 13,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,25</t>
+          <t>3,98; 13,4</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>251,87%</t>
+          <t>264,96%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>198,04%</t>
+          <t>162,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>222,21%</t>
+          <t>205,38%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>125,79; 472,25</t>
+          <t>133,95; 518,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>66,44; 328,64</t>
+          <t>14,92; 288,46</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>122,38; 332,63</t>
+          <t>81,18; 314,17</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>7,23</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,87</t>
+          <t>-2,83; 11,38</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,13</t>
+          <t>6,21; 13,27</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,02</t>
+          <t>0,15; 11,21</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>132,05%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>77,33%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>72,75%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>70,9; 222,92</t>
+          <t>-31,64; 176,95</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>42,34; 120,78</t>
+          <t>42,88; 122,23</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>58,38; 137,38</t>
+          <t>3,44; 120,03</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,24</t>
+          <t>2,38; 6,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,21</t>
+          <t>2,15; 6,22</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,73</t>
+          <t>3,08; 5,87</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>111,56%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>54,17%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>69,01%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>77,48; 161,57</t>
+          <t>46,39; 139,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>43,42; 92,6</t>
+          <t>26,27; 80,05</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>64,9; 105,33</t>
+          <t>44,0; 89,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,51</t>
+          <t>0,54; 10,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 11,14</t>
+          <t>1,39; 11,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -3,21</t>
+          <t>-9,06; -3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,26; 25,91</t>
+          <t>13,57; 26,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 16,56</t>
+          <t>5,78; 17,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -3,07</t>
+          <t>-9,69; -3,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 16,73</t>
+          <t>8,58; 16,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 12,39</t>
+          <t>4,81; 12,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -3,79</t>
+          <t>-8,37; -3,92</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 268,14</t>
+          <t>1,29; 286,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 298,45</t>
+          <t>11,3; 294,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>129,59; 541,62</t>
+          <t>148,83; 549,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,7; 335,58</t>
+          <t>62,36; 369,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-94,88; -60,06</t>
+          <t>-95,69; -65,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>103,5; 347,41</t>
+          <t>105,38; 344,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,07; 257,87</t>
+          <t>59,95; 261,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-97,28; -81,81</t>
+          <t>-97,37; -83,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,46</t>
+          <t>-4,46; 2,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -0,88</t>
+          <t>-7,18; -1,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,47</t>
+          <t>-5,58; 1,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,59</t>
+          <t>-6,68; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -2,52</t>
+          <t>-10,45; -2,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; -2,16</t>
+          <t>-9,31; -1,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,07</t>
+          <t>-4,62; 0,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -2,74</t>
+          <t>-7,65; -2,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -1,28</t>
+          <t>-6,45; -1,09</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 41,84</t>
+          <t>-44,58; 43,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,47; -10,05</t>
+          <t>-71,19; -15,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,86; 25,96</t>
+          <t>-58,06; 30,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 13,22</t>
+          <t>-42,07; 13,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,41; -20,72</t>
+          <t>-64,31; -17,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,55; -17,29</t>
+          <t>-56,04; -13,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 11,66</t>
+          <t>-36,8; 9,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,67; -28,47</t>
+          <t>-61,08; -26,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,92; -12,61</t>
+          <t>-52,05; -10,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,36</t>
+          <t>2,18; 7,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,07</t>
+          <t>1,53; 6,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,28</t>
+          <t>3,54; 8,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 13,31</t>
+          <t>6,16; 13,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,95</t>
+          <t>0,33; 5,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,24</t>
+          <t>7,47; 13,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,97</t>
+          <t>4,99; 9,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,59</t>
+          <t>1,74; 5,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,35</t>
+          <t>6,29; 10,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,8; —</t>
+          <t>48,12; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,79; —</t>
+          <t>-9,75; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,25; —</t>
+          <t>87,79; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>154,33; 1536,05</t>
+          <t>177,14; 1565,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 664,71</t>
+          <t>-6,4; 707,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>198,27; 1980,57</t>
+          <t>199,96; 1732,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>224,24; 1450,71</t>
+          <t>203,2; 1486,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,98; 847,04</t>
+          <t>65,9; 764,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>266,83; 1519,97</t>
+          <t>249,46; 1651,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 12,68</t>
+          <t>5,32; 12,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,86</t>
+          <t>3,19; 8,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,6</t>
+          <t>1,42; 7,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,92; 21,77</t>
+          <t>12,45; 22,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 17,99</t>
+          <t>8,92; 18,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,39</t>
+          <t>1,09; 9,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,19; 16,11</t>
+          <t>10,14; 15,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,62</t>
+          <t>7,26; 12,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,1</t>
+          <t>2,63; 8,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>166,84; 3134,85</t>
+          <t>202,0; 2957,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,41; 1943,0</t>
+          <t>102,77; 2260,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,54; 1537,81</t>
+          <t>4,58; 1558,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>216,2; 857,24</t>
+          <t>192,13; 840,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>157,1; 714,87</t>
+          <t>136,93; 695,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,12; 329,3</t>
+          <t>22,04; 368,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>267,57; 841,07</t>
+          <t>274,56; 836,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>201,87; 700,85</t>
+          <t>180,8; 667,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,96; 419,8</t>
+          <t>68,15; 414,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -1,67</t>
+          <t>-11,87; -1,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 9,48</t>
+          <t>-2,92; 9,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 10,8</t>
+          <t>-1,55; 11,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 2,26</t>
+          <t>-10,96; 3,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 14,21</t>
+          <t>-1,3; 14,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 4,23</t>
+          <t>-9,13; 4,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -0,86</t>
+          <t>-9,58; -0,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,8</t>
+          <t>-0,09; 9,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,48</t>
+          <t>-3,4; 5,62</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-80,89; -18,74</t>
+          <t>-81,39; -12,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 113,82</t>
+          <t>-21,0; 120,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 129,65</t>
+          <t>-11,57; 141,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 17,01</t>
+          <t>-51,86; 24,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 110,24</t>
+          <t>-6,16; 108,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 30,7</t>
+          <t>-39,69; 29,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-57,9; -4,29</t>
+          <t>-58,02; -3,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 81,82</t>
+          <t>-0,79; 79,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 44,97</t>
+          <t>-19,88; 47,63</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,96</t>
+          <t>4,61; 11,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,58</t>
+          <t>3,61; 9,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,02</t>
+          <t>4,66; 10,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,59</t>
+          <t>3,32; 11,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,69; 15,26</t>
+          <t>5,25; 15,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,33; 13,83</t>
+          <t>6,17; 13,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,62</t>
+          <t>5,35; 10,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,63; 11,35</t>
+          <t>5,43; 11,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,9</t>
+          <t>6,38; 10,8</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>54,05; 645,91</t>
+          <t>52,86; 669,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>114,98; 781,77</t>
+          <t>106,77; 799,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>105,25; 772,01</t>
+          <t>103,41; 786,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>174,95; 1021,93</t>
+          <t>163,62; 932,34</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>197,97; 1097,32</t>
+          <t>190,15; 990,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>199,44; 1061,51</t>
+          <t>202,07; 991,69</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,81</t>
+          <t>-1,27; 3,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,49</t>
+          <t>0,83; 6,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,78</t>
+          <t>8,34; 16,97</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,72</t>
+          <t>0,02; 5,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,51</t>
+          <t>2,35; 8,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,63; 13,89</t>
+          <t>1,26; 13,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,98</t>
+          <t>0,23; 4,09</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,89</t>
+          <t>2,45; 6,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,98; 13,4</t>
+          <t>4,03; 13,34</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 120,88</t>
+          <t>-21,93; 127,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>11,39; 194,61</t>
+          <t>10,3; 192,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>133,95; 518,65</t>
+          <t>142,6; 513,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,96; 142,34</t>
+          <t>-0,73; 139,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,92; 209,73</t>
+          <t>35,28; 210,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>14,92; 288,46</t>
+          <t>19,33; 302,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,71; 102,16</t>
+          <t>3,38; 97,85</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>41,39; 174,47</t>
+          <t>41,06; 162,71</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>81,18; 314,17</t>
+          <t>88,09; 313,68</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,6</t>
+          <t>0,6; 6,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,45</t>
+          <t>-3,05; 2,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 11,38</t>
+          <t>-2,25; 11,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,47</t>
+          <t>-3,41; 3,12</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,09</t>
+          <t>-6,27; -0,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,21; 13,27</t>
+          <t>6,05; 13,24</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,77</t>
+          <t>-0,84; 3,79</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,35</t>
+          <t>-3,85; 0,51</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,15; 11,21</t>
+          <t>0,84; 10,94</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,7; 115,93</t>
+          <t>7,21; 109,03</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 44,01</t>
+          <t>-35,84; 34,93</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 176,95</t>
+          <t>-26,09; 177,62</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 32,35</t>
+          <t>-23,64; 28,47</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-44,6; 0,12</t>
+          <t>-44,15; -0,07</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>42,88; 122,23</t>
+          <t>41,28; 125,23</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 41,82</t>
+          <t>-7,8; 42,26</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 3,21</t>
+          <t>-34,69; 6,69</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>3,44; 120,03</t>
+          <t>8,94; 116,21</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,34</t>
+          <t>1,77; 4,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>1,09; 3,55</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,35</t>
+          <t>2,42; 6,39</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,6</t>
+          <t>3,37; 6,41</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,79</t>
+          <t>1,74; 4,58</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,22</t>
+          <t>2,25; 6,31</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,92</t>
+          <t>3,01; 4,97</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,77</t>
+          <t>1,89; 3,79</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,87</t>
+          <t>3,25; 5,91</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>30,93; 94,82</t>
+          <t>31,11; 95,5</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>21,24; 80,27</t>
+          <t>18,88; 76,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>46,39; 139,19</t>
+          <t>47,95; 140,92</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35,59; 83,3</t>
+          <t>36,74; 81,02</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,96; 60,66</t>
+          <t>18,78; 59,04</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>26,27; 80,05</t>
+          <t>26,59; 81,16</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>40,59; 75,44</t>
+          <t>41,3; 80,8</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>24,64; 58,31</t>
+          <t>26,8; 59,55</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>44,0; 89,88</t>
+          <t>45,97; 91,81</t>
         </is>
       </c>
     </row>
